--- a/참고용/통그라미DB.xlsx
+++ b/참고용/통그라미DB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\태현\Documents\Tongurami\참고용\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006BA3DC-A64D-4C7B-B1E9-DF4EA8EF8D24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="10065"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t>게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -371,13 +372,17 @@
   </si>
   <si>
     <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔로워테이블 필요 없을수도?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -720,21 +725,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -753,7 +758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -785,7 +790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -817,7 +822,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -849,7 +854,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -863,7 +868,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -883,7 +888,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -903,7 +908,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -923,7 +928,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="G12" t="s">
         <v>64</v>
       </c>
@@ -931,7 +936,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="G13" t="s">
         <v>65</v>
       </c>
@@ -939,12 +944,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -961,7 +969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -975,7 +983,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -992,7 +1000,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -1003,12 +1011,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1019,7 +1027,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1030,7 +1038,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -1041,7 +1049,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -1049,17 +1057,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1079,7 +1087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -1099,7 +1107,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -1122,6 +1130,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>